--- a/docs/form_faskes_v1.xlsx
+++ b/docs/form_faskes_v1.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="entities" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="entities" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,8 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>**Form Fasilitas Kesehatan**&lt;br&gt;Form untuk pendataan dan update fasilitas layanan kesehatan pengungsi.</t>
+          <t># Form Fasilitas Kesehatan Pengungsi
+Pendataan faskes yang melayani pengungsi bencana.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -539,28 +540,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>select_one_from_file provinsi.csv</t>
+          <t>select_one mode_list</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sel_provinsi</t>
+          <t>mode</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pilih Provinsi</t>
+          <t>Apa yang ingin Anda lakukan?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>minimal search</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -569,27 +566,23 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>value=kode</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>select_one_from_file kota_kab.csv</t>
+          <t>select_one_from_file provinsi.csv</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sel_kota_kab</t>
+          <t>sel_provinsi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pilih Kota/Kabupaten</t>
+          <t>Provinsi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -603,18 +596,10 @@
           <t>minimal search</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>${sel_provinsi} != ''</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>id_provinsi=${sel_provinsi}</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
@@ -627,17 +612,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>select_one_from_file kecamatan.csv</t>
+          <t>select_one_from_file kota_kab.csv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sel_kecamatan</t>
+          <t>sel_kota_kab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pilih Kecamatan</t>
+          <t>Kota/Kabupaten</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -651,16 +636,12 @@
           <t>minimal search</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>${sel_kota_kab} != ''</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>id_kota_kab=${sel_kota_kab}</t>
+          <t>id_provinsi=${sel_provinsi}</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -675,17 +656,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>select_one_from_file desa.csv</t>
+          <t>select_one_from_file kecamatan.csv</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sel_desa</t>
+          <t>sel_kecamatan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pilih Desa/Kelurahan</t>
+          <t>Kecamatan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -699,16 +680,12 @@
           <t>minimal search</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>${sel_kecamatan} != ''</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>id_kec=${sel_kecamatan}</t>
+          <t>id_kota_kab=${sel_kota_kab}</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -723,17 +700,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>select_one mode_list</t>
+          <t>select_one_from_file desa.csv</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mode</t>
+          <t>sel_desa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Update data atau bikin data baru</t>
+          <t>Desa/Kelurahan</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -744,20 +721,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>${sel_desa} != ''</t>
-        </is>
-      </c>
+          <t>minimal search</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>id_kec=${sel_kecamatan}</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>value=kode</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -777,11 +758,7 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>minimal search</t>
@@ -796,7 +773,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>id_desa=${sel_desa}</t>
+          <t>id_desa = ${sel_desa}</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -817,14 +794,10 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nama Faskes Kesehatan</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Masukkan nama faskes baru (ex: Puskesmas Karang Baru")</t>
-        </is>
-      </c>
+          <t>Nama Fasilitas Kesehatan</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>yes</t>
@@ -847,24 +820,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>begin_group</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>grp_identitas</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Identitas Faskes</t>
-        </is>
-      </c>
+          <t>c_nama_faskes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/label</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -875,277 +848,193 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>select_one jenis_faskes_list</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jenis_faskes</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Jenis Faskes (RS, Puskesmas, Klinik Swasta, Faskes Darurat)</t>
-        </is>
-      </c>
+          <t>c_jenis_faskes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/jenis_faskes</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>jenis_faskes</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>select_one status_faskes_list</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>status_faskes</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Status Operasional Faskes</t>
-        </is>
-      </c>
+          <t>c_status_faskes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/status_faskes</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>status_faskes</t>
-        </is>
-      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>select_one kondisi_faskes_list</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>kondisi_faskes</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Kondisi untuk faskes publik seperti puskesmas/klinik</t>
-        </is>
-      </c>
+          <t>c_kondisi_faskes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/kondisi_faskes</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>kondisi_faskes</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>nama_pj_faskes</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Nama Penanggungjawab Faskes</t>
-        </is>
-      </c>
+          <t>c_nama_pj_faskes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/nama_pj_faskes</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>nama_pj_faskes</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>contact_pj_faskes</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Contact Penanggung Jawab Faskes</t>
-        </is>
-      </c>
+          <t>c_contact_pj_faskes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/contact_pj_faskes</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>contact_pj_faskes</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>alamat_dusun</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Dusun / Gampong</t>
-        </is>
-      </c>
+          <t>c_alamat_dusun</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/alamat_dusun</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>alamat_dusun</t>
-        </is>
-      </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>geopoint</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>koordinat</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Koordinat faskes</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Gunakan map untuk konfirmasi posisi faskes</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>placement-map</t>
-        </is>
-      </c>
+          <t>c_geometry</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/koordinat</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/geometry</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1155,16 +1044,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>end_group</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>c_terisolir</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/terisolir</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1175,24 +1072,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>begin_group</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>grp_terisolir</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Status Terisolir</t>
-        </is>
-      </c>
+          <t>c_akses_via</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/akses_via</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1203,108 +1100,80 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>select_one yesno</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>terisolir</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Terisolir?</t>
-        </is>
-      </c>
+          <t>c_sumber_listrik</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/terisolir</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/sumber_listrik</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>terisolir</t>
-        </is>
-      </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>select_multiple akses_list</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>akses_via</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Hanya dapat diakses via</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Pilih semua yang berlaku</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+          <t>c_kondisi_penerangan</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>${terisolir} = 'yes'</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/akses_via</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/kondisi_penerangan</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>akses_via</t>
-        </is>
-      </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>end_group</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>c_ketersediaan_sinyal</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/ketersediaan_sinyal</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1315,24 +1184,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>begin_group</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>grp_infra_operasional</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Infrastruktur Operasional</t>
-        </is>
-      </c>
+          <t>c_ketersediaan_internet</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/ketersediaan_internet</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1343,24 +1212,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>note_listrik</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>**Sarana Listrik**</t>
-        </is>
-      </c>
+          <t>c_jaringan_orari</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/jaringan_orari</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1371,112 +1240,80 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>select_one sumber_listrik_list</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sumber_listrik</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Sumber Listrik</t>
-        </is>
-      </c>
+          <t>c_ketersediaan_air</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/sumber_listrik</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/ketersediaan_air</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>sumber_listrik</t>
-        </is>
-      </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>select_one cukup</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>kondisi_penerangan</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Kondisi Penerangan</t>
-        </is>
-      </c>
+          <t>c_sumber_air</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/kondisi_penerangan</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/sumber_air</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>kondisi_penerangan</t>
-        </is>
-      </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>note_komunikasi</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>**Sarana Komunikasi**</t>
-        </is>
-      </c>
+          <t>c_kapasitas_sterilisasi</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/kapasitas_sterilisasi</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1487,156 +1324,108 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>select_multiple sinyal_list</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ketersediaan_sinyal</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Ketersediaan Sinyal Seluler</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Pilih semua yang berlaku</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+          <t>c_dokter_umum</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/ketersediaan_sinyal</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/dokter_umum)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>ketersediaan_sinyal</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>select_multiple internet_list</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ketersediaan_internet</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Ketersediaan Internet</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Pilih semua yang berlaku</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+          <t>c_dokter_gigi</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/ketersediaan_internet</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/dokter_gigi)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>ketersediaan_internet</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>select_one yesno</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jaringan_orari</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Ketersediaan Jaringan ORARI</t>
-        </is>
-      </c>
+          <t>c_psikolog</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/jaringan_orari</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/psikolog)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>jaringan_orari</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>note_sanitasi</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>**Sarana Sanitasi dan Sterilisasi**</t>
-        </is>
-      </c>
+          <t>c_perawat</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/perawat)</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1647,140 +1436,108 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>select_one cukup</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ketersediaan_air</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Kapasitas Air Bersih</t>
-        </is>
-      </c>
+          <t>c_bidan</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/ketersediaan_air</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/bidan)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>ketersediaan_air</t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>select_multiple sumber_air_list</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sumber_air</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Sumber Air Bersih</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Pilih semua yang berlaku</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+          <t>c_apoteker</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/sumber_air</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/apoteker)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>sumber_air</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>select_one cukup</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>kapasitas_sterilisasi</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Kapasitas Sterilisasi</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Pilih semua yang berlaku</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+          <t>c_tenaga_kefarmasian</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/kapasitas_sterilisasi</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/tenaga_kefarmasian)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>kapasitas_sterilisasi</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>end_group</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>c_analis_kimia</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/analis_kimia)</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1791,24 +1548,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>begin_group</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>grp_sumber_daya_manusia</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Sumber Daya Manusia</t>
-        </is>
-      </c>
+          <t>c_tenaga_kesehatan_masyarakat</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/tenaga_kesehatan_masyarakat)</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1819,24 +1576,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>note_nakes</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>**Tenaga Kesehatan**</t>
-        </is>
-      </c>
+          <t>c_tenaga_kesehatan_lingkungan</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/tenaga_kesehatan_lingkungan)</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1847,508 +1604,332 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>dokter_umum</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Dokter Umum</t>
-        </is>
-      </c>
+          <t>c_ahli_gizi</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/dokter_umum</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/ahli_gizi)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>dokter_umum</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>dokter_gigi</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Dokter Gigi</t>
-        </is>
-      </c>
+          <t>c_tenaga_administrasi</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/dokter_gigi</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/tenaga_administrasi)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>dokter_gigi</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>psikolog</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Psikolog</t>
-        </is>
-      </c>
+          <t>c_tenaga_keuangan</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/psikolog</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/tenaga_keuangan)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>psikolog</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>perawat</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Perawat</t>
-        </is>
-      </c>
+          <t>c_tenaga_sistem_informasi_kesehatan</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/perawat</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/tenaga_sistem_informasi_kesehatan)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>perawat</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bidan</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Bidan</t>
-        </is>
-      </c>
+          <t>c_perekam_medis</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/bidan</t>
-        </is>
-      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/perekam_medis)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>bidan</t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>apoteker</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Apoteker</t>
-        </is>
-      </c>
+          <t>c_petugas_keamanan_kebersihan</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/apoteker</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>number(instance('faskes_entities')/root/item[name=${sel_faskes}]/petugas_keamanan_kebersihan)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>apoteker</t>
-        </is>
-      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>tenaga_kefarmasian</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Tenaga Kefarmasian</t>
-        </is>
-      </c>
+          <t>c_obat_bahan_habis_pakai</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/tenaga_kefarmasian</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/obat_bahan_habis_pakai</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>tenaga_kefarmasian</t>
-        </is>
-      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>analis_kimia</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Analis Kimia</t>
-        </is>
-      </c>
+          <t>c_alat_kesehatan</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/analis_kimia</t>
-        </is>
-      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/alat_kesehatan</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>analis_kimia</t>
-        </is>
-      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>tenaga_kesehatan_masyarakat</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Tenaga Kesehatan Masyarakat</t>
-        </is>
-      </c>
+          <t>c_persalinan_kit</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/tenaga_kesehatan_masyarakat</t>
-        </is>
-      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/persalinan_kit</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>tenaga_kesehatan_masyarakat</t>
-        </is>
-      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tenaga_kesehatan_lingkungan</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Tenaga Kesehatan Lingkungan</t>
-        </is>
-      </c>
+          <t>c_kaporit</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/tenaga_kesehatan_lingkungan</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/kaporit</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>tenaga_kesehatan_lingkungan</t>
-        </is>
-      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ahli_gizi</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Ahli Gizi</t>
-        </is>
-      </c>
+          <t>c_pac</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/ahli_gizi</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/pac</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>ahli_gizi</t>
-        </is>
-      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>note_non_nakes</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>**Non-Tenaga Kesehatan**</t>
-        </is>
-      </c>
+          <t>c_aquatab</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/aquatab</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2359,236 +1940,164 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>tenaga_administrasi</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Tenaga administrasi/ketatausahaan</t>
-        </is>
-      </c>
+          <t>c_kantong_sampah</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/tenaga_administrasi</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/kantong_sampah</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>tenaga_administrasi</t>
-        </is>
-      </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tenaga_keuangan</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Tenaga keuangan</t>
-        </is>
-      </c>
+          <t>c_repellent_lalat</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/tenaga_keuangan</t>
-        </is>
-      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/repellent_lalat</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>tenaga_keuangan</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>tenaga_sistem_informasi_kesehatan</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Tenaga sistem informasi kesehatan</t>
-        </is>
-      </c>
+          <t>c_hygiene_kit</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/tenaga_sistem_informasi_kesehatan</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/hygiene_kit</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>tenaga_sistem_informasi_kesehatan</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>perekam_medis</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Perekam medis</t>
-        </is>
-      </c>
+          <t>c_klaster_yankes</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/perekam_medis</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/klaster_yankes</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>perekam_medis</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>petugas_keamanan_kebersihan</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Petugas keamanan dan kebersihan</t>
-        </is>
-      </c>
+          <t>c_klaster_kendali_penyakit</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/petugas_keamanan_kebersihan</t>
-        </is>
-      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/klaster_kendali_penyakit</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>. &gt;= 0</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Jumlah tidak boleh negatif</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>petugas_keamanan_kebersihan</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>end_group</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>c_klaster_gizi</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/klaster_gizi</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2599,24 +2108,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>begin_group</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>grp_sumber_daya</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Sumber Daya Operasional</t>
-        </is>
-      </c>
+          <t>c_klaster_jiwa</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/klaster_jiwa</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2627,24 +2136,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>note_perbekalan_kesehatan</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>**Perbekalan Kesehatan**</t>
-        </is>
-      </c>
+          <t>c_klaster_reproduksi</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/klaster_reproduksi</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2655,144 +2164,108 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>select_one cukup</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>obat_bahan_habis_pakai</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Obat dan bahan habis pakai</t>
-        </is>
-      </c>
+          <t>c_klaster_dvi</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/obat_bahan_habis_pakai</t>
-        </is>
-      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/klaster_dvi</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>obat_bahan_habis_pakai</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>select_one cukup</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>alat_kesehatan</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Alat kesehatan</t>
-        </is>
-      </c>
+          <t>c_klaster_logkes</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/alat_kesehatan</t>
-        </is>
-      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/klaster_logkes</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>alat_kesehatan</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>select_one cukup</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>persalinan_kit</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Persalinan Kit</t>
-        </is>
-      </c>
+          <t>c_total_sdm</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/persalinan_kit</t>
-        </is>
-      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>coalesce(${c_dokter_umum},0) + coalesce(${c_dokter_gigi},0) + coalesce(${c_psikolog},0) + coalesce(${c_perawat},0) + coalesce(${c_bidan},0) + coalesce(${c_apoteker},0) + coalesce(${c_tenaga_kefarmasian},0) + coalesce(${c_analis_kimia},0) + coalesce(${c_tenaga_kesehatan_masyarakat},0) + coalesce(${c_tenaga_kesehatan_lingkungan},0) + coalesce(${c_ahli_gizi},0) + coalesce(${c_tenaga_administrasi},0) + coalesce(${c_tenaga_keuangan},0) + coalesce(${c_tenaga_sistem_informasi_kesehatan},0) + coalesce(${c_perekam_medis},0) + coalesce(${c_petugas_keamanan_kebersihan},0)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>persalinan_kit</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>note_bahan_sanitasi_sterilisasi</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>**Bahan Sanitasi dan Sterilisasi**</t>
-        </is>
-      </c>
+          <t>c_baseline_sumber</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/baseline_sumber</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2803,251 +2276,247 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>select_one cukup</t>
+          <t>begin_group</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>kaporit</t>
+          <t>grp_preview</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kaporit</t>
+          <t>Data Faskes Saat Ini</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>field-list</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>${mode} = 'update' and ${sel_faskes} != ''</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/kaporit</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>kaporit</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>select_one cukup</t>
+          <t>note</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pac</t>
+          <t>note_preview_header</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PAC</t>
+          <t># DATA TERCATAT</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/pac</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>pac</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>select_one cukup</t>
+          <t>note</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>aquatab</t>
+          <t>note_preview_identitas</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Aquatab</t>
+          <t>**IDENTITAS FASKES**
+🏥 **${c_nama_faskes}**
+Jenis: ${c_jenis_faskes}
+Status: ${c_status_faskes}
+Kondisi: ${c_kondisi_faskes}
+📞 PJ: ${c_nama_pj_faskes} (${c_contact_pj_faskes})
+📍 Alamat: ${c_alamat_dusun}
+🚧 Terisolir: ${c_terisolir}
+🚗 Akses: ${c_akses_via}</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/aquatab</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>aquatab</t>
-        </is>
-      </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>select_one cukup</t>
+          <t>note</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>kantong_sampah</t>
+          <t>note_preview_sdm</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Kantong Sampah</t>
+          <t>**SUMBER DAYA MANUSIA**
+👨‍⚕️ Total Tenaga: **${c_total_sdm}** orang
+_Tenaga Kesehatan:_
+• Dokter Umum: ${c_dokter_umum}
+• Dokter Gigi: ${c_dokter_gigi}
+• Psikolog: ${c_psikolog}
+• Perawat: ${c_perawat}
+• Bidan: ${c_bidan}
+• Apoteker: ${c_apoteker}
+• Tenaga Kefarmasian: ${c_tenaga_kefarmasian}
+• Analis Kimia: ${c_analis_kimia}
+• Kesmas: ${c_tenaga_kesehatan_masyarakat}
+• Kesling: ${c_tenaga_kesehatan_lingkungan}
+• Ahli Gizi: ${c_ahli_gizi}
+_Tenaga Non-Kesehatan:_
+• Administrasi: ${c_tenaga_administrasi}
+• Keuangan: ${c_tenaga_keuangan}
+• SIK: ${c_tenaga_sistem_informasi_kesehatan}
+• Rekam Medis: ${c_perekam_medis}
+• Keamanan/Kebersihan: ${c_petugas_keamanan_kebersihan}</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/kantong_sampah</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>kantong_sampah</t>
-        </is>
-      </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>select_one cukup</t>
+          <t>note</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>repellent_lalat</t>
+          <t>note_preview_infrastruktur</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Repellent Lalat</t>
+          <t>**INFRASTRUKTUR**
+⚡ Listrik: ${c_sumber_listrik}
+💡 Penerangan: ${c_kondisi_penerangan}
+📶 Sinyal: ${c_ketersediaan_sinyal}
+🌐 Internet: ${c_ketersediaan_internet}
+📻 ORARI: ${c_jaringan_orari}
+💧 Air: ${c_ketersediaan_air} (${c_sumber_air})
+🧪 Sterilisasi: ${c_kapasitas_sterilisasi}</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/repellent_lalat</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>repellent_lalat</t>
-        </is>
-      </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>select_one cukup</t>
+          <t>note</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>hygiene_kit</t>
+          <t>note_preview_perbekalan</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Hygiene Kit</t>
+          <t>**PERBEKALAN**
+_Kesehatan:_
+💊 Obat &amp; BHP: ${c_obat_bahan_habis_pakai}
+🩺 Alat Kesehatan: ${c_alat_kesehatan}
+👶 Kit Persalinan: ${c_persalinan_kit}
+_Sanitasi &amp; Sterilisasi:_
+• Kaporit: ${c_kaporit}
+• PAC: ${c_pac}
+• Aquatab: ${c_aquatab}
+• Kantong Sampah: ${c_kantong_sampah}
+• Repellent Lalat: ${c_repellent_lalat}
+• Hygiene Kit: ${c_hygiene_kit}</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/hygiene_kit</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>hygiene_kit</t>
-        </is>
-      </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>end_group</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>note_preview_klaster</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>**KLASTER AKTIF**
+• Pelayanan Kesehatan: ${c_klaster_yankes}
+• Pengendalian Penyakit: ${c_klaster_kendali_penyakit}
+• Gizi: ${c_klaster_gizi}
+• Kesehatan Jiwa: ${c_klaster_jiwa}
+• Kesehatan Reproduksi: ${c_klaster_reproduksi}
+• DVI (Identifikasi Korban): ${c_klaster_dvi}
+• Logistik Kesehatan: ${c_klaster_logkes}</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
@@ -3063,17 +2532,18 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>begin_group</t>
+          <t>note</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>grp_penanggulangan</t>
+          <t>note_preview_footer</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Upaya pemulihan bencana yang berjalan</t>
+          <t>---
+_Periksa data di atas sebelum melakukan update._</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -3091,237 +2561,169 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>select_one yesno</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>klaster_yankes</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Sub Klaster Pelayanan Kesehatan</t>
-        </is>
-      </c>
+          <t>end_group</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/klaster_yankes</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>klaster_yankes</t>
-        </is>
-      </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>select_one yesno</t>
+          <t>select_one yn</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>klaster_kendali_penyakit</t>
+          <t>konfirmasi_faskes</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sub Klaster pengendalian penyakit, Penyehatan Lingkungan dan Air Bersih</t>
+          <t>Apakah data faskes ini yang anda maksud?</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>${mode} = 'update' and ${sel_faskes} != ''</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/klaster_kendali_penyakit</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>klaster_kendali_penyakit</t>
-        </is>
-      </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>select_one yesno</t>
+          <t>select_multiple section_list</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>klaster_gizi</t>
+          <t>section_update</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sub Klaster Pelayanan Gizi</t>
+          <t>Pilih bagian yang ingin di-update:</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>${mode} = 'update' and ${konfirmasi_faskes} = 'ya'</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/klaster_gizi</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>klaster_gizi</t>
-        </is>
-      </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>select_one yesno</t>
+          <t>note</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>klaster_jiwa</t>
+          <t>note_section_hint</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sub Klaster Pelayanan Kesehatan Jiwa</t>
+          <t>**_Tip: Kosongkan dan (next)  saja untuk data yang tidak diubah. Data lama akan dipertahankan._**</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>${mode} = 'update' and ${konfirmasi_faskes} = 'ya'</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/klaster_jiwa</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>klaster_jiwa</t>
-        </is>
-      </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>select_one yesno</t>
+          <t>begin_group</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>klaster_reproduksi</t>
+          <t>grp_identitas</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sub Klaster Kesehatan Reproduksi</t>
+          <t>Identitas Faskes</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>${mode} = 'baru' or (${mode} = 'update' and ${konfirmasi_faskes} = 'ya' and selected(${section_update}, 'identitas'))</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/klaster_reproduksi</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>klaster_reproduksi</t>
-        </is>
-      </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>select_one yesno</t>
+          <t>select_one jenis_faskes_list</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>klaster_dvi</t>
+          <t>jenis_faskes</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sub Klaster DVI</t>
+          <t>Jenis Fasilitas Kesehatan</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -3337,35 +2739,27 @@
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/klaster_dvi</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>klaster_dvi</t>
-        </is>
-      </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>select_one yesno</t>
+          <t>select_one status_faskes_list</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>klaster_logkes</t>
+          <t>status_faskes</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Tim Logistik Kesehatan</t>
+          <t>Status Operasional</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -3381,32 +2775,40 @@
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>instance('faskes_entities')/root/item[name=${sel_faskes}]/klaster_logkes</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>klaster_logkes</t>
-        </is>
-      </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>end_group</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+          <t>select_one kondisi_faskes_list</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>kondisi_faskes</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Kondisi Bangunan</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
@@ -3419,17 +2821,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>begin_group</t>
+          <t>text</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>grp_foto</t>
+          <t>nama_pj_faskes</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Data Pendukung (Foto)</t>
+          <t>Nama Penanggung Jawab</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -3447,24 +2849,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>text</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>foto_depan</t>
+          <t>contact_pj_faskes</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Foto Tampak Depan Faskes</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Foto dengan timestamp &amp; koordinat</t>
-        </is>
-      </c>
+          <t>Nomor HP Penanggung Jawab</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
@@ -3473,34 +2871,26 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>max-pixels=1024</t>
-        </is>
-      </c>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>text</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>foto_area1</t>
+          <t>alamat_dusun</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Foto Area 1</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Foto dengan timestamp &amp; koordinat</t>
-        </is>
-      </c>
+          <t>Alamat/Dusun</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
@@ -3509,30 +2899,30 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>max-pixels=1024</t>
-        </is>
-      </c>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>geopoint</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>foto_area2</t>
+          <t>koordinat</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Foto Area 2</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>Koordinat Lokasi</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Ambil koordinat GPS</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -3541,29 +2931,17 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>max-pixels=1024</t>
-        </is>
-      </c>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>foto_area3</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Foto Area 3</t>
-        </is>
-      </c>
+          <t>end_group</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
@@ -3573,25 +2951,33 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>max-pixels=1024</t>
-        </is>
-      </c>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>end_group</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
+          <t>begin_group</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>grp_terisolir</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Status Terisolir</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>${mode} = 'baru' or (${mode} = 'update' and ${konfirmasi_faskes} = 'ya' and selected(${section_update}, 'terisolir'))</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3603,226 +2989,3738 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>calculate</t>
+          <t>select_one yesno</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>calc_nama_provinsi</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>terisolir</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Apakah faskes terisolir?</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>jr:choice-name(${sel_provinsi}, '${sel_provinsi}')</t>
-        </is>
-      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>nama_provinsi</t>
-        </is>
-      </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>calculate</t>
+          <t>select_multiple akses_list</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>calc_nama_kota_kab</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
+          <t>akses_via</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Akses menuju faskes</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>jr:choice-name(${sel_kota_kab}, '${sel_kota_kab}')</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>${terisolir} = 'yes'</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>nama_kota_kab</t>
-        </is>
-      </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>calculate</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>calc_nama_kecamatan</t>
-        </is>
-      </c>
+          <t>end_group</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>jr:choice-name(${sel_kecamatan}, '${sel_kecamatan}')</t>
-        </is>
-      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>nama_kecamatan</t>
-        </is>
-      </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>calculate</t>
+          <t>begin_group</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>calc_nama_desa</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>grp_infra_operasional</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Infrastruktur Operasional</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>jr:choice-name(${sel_desa}, '${sel_desa}')</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>${mode} = 'baru' or (${mode} = 'update' and ${konfirmasi_faskes} = 'ya' and selected(${section_update}, 'infrastruktur'))</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>nama_desa</t>
-        </is>
-      </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>calculate</t>
+          <t>note</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>calc_nama_faskes</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>note_listrik</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>## Kelistrikan</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>if(${mode}='baru', ${nama_faskes}, instance('faskes_entities')/root/item[name=${sel_faskes}]/nama_faskes)</t>
-        </is>
-      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>nama_faskes</t>
-        </is>
-      </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>calculate</t>
+          <t>select_one sumber_listrik_list</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>calc_id_desa</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>sumber_listrik</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Sumber Listrik</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>${sel_desa}</t>
-        </is>
-      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>id_desa</t>
-        </is>
-      </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>calculate</t>
+          <t>select_one cukup</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>calc_geometry</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>kondisi_penerangan</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Kondisi Penerangan</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>${koordinat}</t>
-        </is>
-      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr">
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>note_komunikasi</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>## Komunikasi</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>select_multiple sinyal_list</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ketersediaan_sinyal</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Ketersediaan Sinyal Seluler</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>select_multiple internet_list</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ketersediaan_internet</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Ketersediaan Internet</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>select_one yesno</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>jaringan_orari</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Jaringan Radio Amatir (ORARI)</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>note_sanitasi</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>## Sanitasi &amp; Air</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>select_one cukup</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ketersediaan_air</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Ketersediaan Air Bersih</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>select_multiple sumber_air_list</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>sumber_air</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Sumber Air</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>select_one cukup</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>kapasitas_sterilisasi</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Kapasitas Sterilisasi</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>end_group</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>begin_group</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>grp_sumber_daya_manusia</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Sumber Daya Manusia</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>${mode} = 'baru' or (${mode} = 'update' and ${konfirmasi_faskes} = 'ya' and selected(${section_update}, 'sdm'))</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>note_nakes</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>## Tenaga Kesehatan</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>dokter_umum</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Jumlah Dokter Umum</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>dokter_gigi</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Jumlah Dokter Gigi</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>psikolog</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Jumlah Psikolog</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>perawat</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Jumlah Perawat</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>bidan</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Jumlah Bidan</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>apoteker</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Jumlah Apoteker</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>tenaga_kefarmasian</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Jumlah Tenaga Kefarmasian</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>analis_kimia</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Jumlah Analis Kimia Klinik</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>tenaga_kesehatan_masyarakat</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Jumlah Tenaga Kesehatan Masyarakat</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>tenaga_kesehatan_lingkungan</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Jumlah Tenaga Kesehatan Lingkungan</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ahli_gizi</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Jumlah Ahli Gizi</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>note_non_nakes</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>## Tenaga Non-Kesehatan</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>tenaga_administrasi</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Jumlah Tenaga Administrasi</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>tenaga_keuangan</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Jumlah Tenaga Keuangan</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>tenaga_sistem_informasi_kesehatan</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Jumlah Tenaga Sistem Informasi Kesehatan</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>perekam_medis</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Jumlah Perekam Medis</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>petugas_keamanan_kebersihan</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Jumlah Petugas Keamanan &amp; Kebersihan</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>end_group</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>begin_group</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>grp_sumber_daya</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Sumber Daya Operasional</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>${mode} = 'baru' or (${mode} = 'update' and ${konfirmasi_faskes} = 'ya' and selected(${section_update}, 'perbekalan'))</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>note_perbekalan_kesehatan</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>## Perbekalan Kesehatan</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>select_one cukup</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>obat_bahan_habis_pakai</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Obat &amp; Bahan Habis Pakai</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>select_one cukup</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>alat_kesehatan</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Alat Kesehatan</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>select_one cukup</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>persalinan_kit</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Kit Persalinan</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>note_bahan_sanitasi_sterilisasi</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>## Bahan Sanitasi &amp; Sterilisasi</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>select_one cukup</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>kaporit</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Kaporit</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>select_one cukup</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>pac</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>PAC (Poly Aluminium Chloride)</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>select_one cukup</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>aquatab</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Aquatab</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>select_one cukup</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>kantong_sampah</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Kantong Sampah</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>select_one cukup</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>repellent_lalat</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Repellent Lalat</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>select_one cukup</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>hygiene_kit</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Hygiene Kit</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>end_group</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>begin_group</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>grp_penanggulangan</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Upaya Pemulihan Bencana yang Berjalan</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>${mode} = 'baru' or (${mode} = 'update' and ${konfirmasi_faskes} = 'ya' and selected(${section_update}, 'klaster'))</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>select_one yesno</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>klaster_yankes</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Klaster Pelayanan Kesehatan</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>select_one yesno</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>klaster_kendali_penyakit</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Klaster Pengendalian Penyakit</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>select_one yesno</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>klaster_gizi</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Klaster Gizi</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>select_one yesno</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>klaster_jiwa</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Klaster Kesehatan Jiwa</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>select_one yesno</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>klaster_reproduksi</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Klaster Kesehatan Reproduksi</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>select_one yesno</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>klaster_dvi</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Klaster DVI (Identifikasi Korban)</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>select_one yesno</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>klaster_logkes</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Klaster Logistik Kesehatan</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>end_group</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>begin_group</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>grp_foto</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Data Pendukung (Foto)</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>${mode} = 'baru' or (${mode} = 'update' and ${konfirmasi_faskes} = 'ya' and selected(${section_update}, 'foto'))</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>foto_depan</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Foto Tampak Depan</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>max-pixels=1024</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>foto_area1</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Foto Area 1</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>max-pixels=1024</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>foto_area2</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Foto Area 2</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>max-pixels=1024</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>foto_area3</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Foto Area 3</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>max-pixels=1024</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>end_group</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>final_nama_faskes</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${nama_faskes}, if(${nama_faskes} != '', ${nama_faskes}, ${c_nama_faskes}))</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>nama_faskes</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>final_jenis_faskes</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${jenis_faskes}, if(${jenis_faskes} != '', ${jenis_faskes}, ${c_jenis_faskes}))</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>jenis_faskes</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>final_status_faskes</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${status_faskes}, if(${status_faskes} != '', ${status_faskes}, ${c_status_faskes}))</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>status_faskes</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>final_kondisi_faskes</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${kondisi_faskes}, if(${kondisi_faskes} != '', ${kondisi_faskes}, ${c_kondisi_faskes}))</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>kondisi_faskes</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>final_nama_pj_faskes</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${nama_pj_faskes}, if(${nama_pj_faskes} != '', ${nama_pj_faskes}, ${c_nama_pj_faskes}))</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>nama_pj_faskes</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>final_contact_pj_faskes</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${contact_pj_faskes}, if(${contact_pj_faskes} != '', ${contact_pj_faskes}, ${c_contact_pj_faskes}))</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>contact_pj_faskes</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>final_alamat_dusun</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${alamat_dusun}, if(${alamat_dusun} != '', ${alamat_dusun}, ${c_alamat_dusun}))</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>alamat_dusun</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>final_terisolir</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${terisolir}, if(${terisolir} != '', ${terisolir}, ${c_terisolir}))</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>terisolir</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>final_akses_via</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${akses_via}, if(${akses_via} != '', ${akses_via}, ${c_akses_via}))</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>akses_via</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>final_sumber_listrik</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${sumber_listrik}, if(${sumber_listrik} != '', ${sumber_listrik}, ${c_sumber_listrik}))</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>sumber_listrik</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>final_kondisi_penerangan</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${kondisi_penerangan}, if(${kondisi_penerangan} != '', ${kondisi_penerangan}, ${c_kondisi_penerangan}))</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>kondisi_penerangan</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>final_ketersediaan_sinyal</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${ketersediaan_sinyal}, if(${ketersediaan_sinyal} != '', ${ketersediaan_sinyal}, ${c_ketersediaan_sinyal}))</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>ketersediaan_sinyal</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>final_ketersediaan_internet</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${ketersediaan_internet}, if(${ketersediaan_internet} != '', ${ketersediaan_internet}, ${c_ketersediaan_internet}))</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>ketersediaan_internet</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>final_jaringan_orari</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${jaringan_orari}, if(${jaringan_orari} != '', ${jaringan_orari}, ${c_jaringan_orari}))</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>jaringan_orari</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>final_ketersediaan_air</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${ketersediaan_air}, if(${ketersediaan_air} != '', ${ketersediaan_air}, ${c_ketersediaan_air}))</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>ketersediaan_air</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>final_sumber_air</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${sumber_air}, if(${sumber_air} != '', ${sumber_air}, ${c_sumber_air}))</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>sumber_air</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>final_kapasitas_sterilisasi</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${kapasitas_sterilisasi}, if(${kapasitas_sterilisasi} != '', ${kapasitas_sterilisasi}, ${c_kapasitas_sterilisasi}))</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>kapasitas_sterilisasi</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>final_dokter_umum</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${dokter_umum}, if(string(${dokter_umum}) != '', ${dokter_umum}, ${c_dokter_umum}))</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>dokter_umum</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>final_dokter_gigi</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${dokter_gigi}, if(string(${dokter_gigi}) != '', ${dokter_gigi}, ${c_dokter_gigi}))</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>dokter_gigi</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>final_psikolog</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${psikolog}, if(string(${psikolog}) != '', ${psikolog}, ${c_psikolog}))</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>psikolog</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>final_perawat</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${perawat}, if(string(${perawat}) != '', ${perawat}, ${c_perawat}))</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>perawat</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>final_bidan</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${bidan}, if(string(${bidan}) != '', ${bidan}, ${c_bidan}))</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>bidan</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>final_apoteker</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${apoteker}, if(string(${apoteker}) != '', ${apoteker}, ${c_apoteker}))</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>apoteker</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>final_tenaga_kefarmasian</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${tenaga_kefarmasian}, if(string(${tenaga_kefarmasian}) != '', ${tenaga_kefarmasian}, ${c_tenaga_kefarmasian}))</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>tenaga_kefarmasian</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>final_analis_kimia</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${analis_kimia}, if(string(${analis_kimia}) != '', ${analis_kimia}, ${c_analis_kimia}))</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>analis_kimia</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>final_tenaga_kesehatan_masyarakat</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${tenaga_kesehatan_masyarakat}, if(string(${tenaga_kesehatan_masyarakat}) != '', ${tenaga_kesehatan_masyarakat}, ${c_tenaga_kesehatan_masyarakat}))</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>tenaga_kesehatan_masyarakat</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>final_tenaga_kesehatan_lingkungan</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${tenaga_kesehatan_lingkungan}, if(string(${tenaga_kesehatan_lingkungan}) != '', ${tenaga_kesehatan_lingkungan}, ${c_tenaga_kesehatan_lingkungan}))</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>tenaga_kesehatan_lingkungan</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>final_ahli_gizi</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${ahli_gizi}, if(string(${ahli_gizi}) != '', ${ahli_gizi}, ${c_ahli_gizi}))</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>ahli_gizi</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>final_tenaga_administrasi</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${tenaga_administrasi}, if(string(${tenaga_administrasi}) != '', ${tenaga_administrasi}, ${c_tenaga_administrasi}))</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>tenaga_administrasi</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>final_tenaga_keuangan</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${tenaga_keuangan}, if(string(${tenaga_keuangan}) != '', ${tenaga_keuangan}, ${c_tenaga_keuangan}))</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>tenaga_keuangan</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>final_tenaga_sistem_informasi_kesehatan</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${tenaga_sistem_informasi_kesehatan}, if(string(${tenaga_sistem_informasi_kesehatan}) != '', ${tenaga_sistem_informasi_kesehatan}, ${c_tenaga_sistem_informasi_kesehatan}))</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>tenaga_sistem_informasi_kesehatan</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>final_perekam_medis</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${perekam_medis}, if(string(${perekam_medis}) != '', ${perekam_medis}, ${c_perekam_medis}))</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>perekam_medis</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>final_petugas_keamanan_kebersihan</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${petugas_keamanan_kebersihan}, if(string(${petugas_keamanan_kebersihan}) != '', ${petugas_keamanan_kebersihan}, ${c_petugas_keamanan_kebersihan}))</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>petugas_keamanan_kebersihan</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>final_obat_bahan_habis_pakai</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${obat_bahan_habis_pakai}, if(${obat_bahan_habis_pakai} != '', ${obat_bahan_habis_pakai}, ${c_obat_bahan_habis_pakai}))</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>obat_bahan_habis_pakai</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>final_alat_kesehatan</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${alat_kesehatan}, if(${alat_kesehatan} != '', ${alat_kesehatan}, ${c_alat_kesehatan}))</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>alat_kesehatan</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>final_persalinan_kit</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${persalinan_kit}, if(${persalinan_kit} != '', ${persalinan_kit}, ${c_persalinan_kit}))</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>persalinan_kit</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>final_kaporit</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${kaporit}, if(${kaporit} != '', ${kaporit}, ${c_kaporit}))</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>kaporit</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>final_pac</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${pac}, if(${pac} != '', ${pac}, ${c_pac}))</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>pac</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>final_aquatab</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${aquatab}, if(${aquatab} != '', ${aquatab}, ${c_aquatab}))</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>aquatab</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>final_kantong_sampah</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${kantong_sampah}, if(${kantong_sampah} != '', ${kantong_sampah}, ${c_kantong_sampah}))</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>kantong_sampah</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>final_repellent_lalat</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${repellent_lalat}, if(${repellent_lalat} != '', ${repellent_lalat}, ${c_repellent_lalat}))</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>repellent_lalat</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>final_hygiene_kit</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${hygiene_kit}, if(${hygiene_kit} != '', ${hygiene_kit}, ${c_hygiene_kit}))</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>hygiene_kit</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>final_klaster_yankes</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${klaster_yankes}, if(${klaster_yankes} != '', ${klaster_yankes}, ${c_klaster_yankes}))</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>klaster_yankes</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>final_klaster_kendali_penyakit</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${klaster_kendali_penyakit}, if(${klaster_kendali_penyakit} != '', ${klaster_kendali_penyakit}, ${c_klaster_kendali_penyakit}))</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>klaster_kendali_penyakit</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>final_klaster_gizi</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${klaster_gizi}, if(${klaster_gizi} != '', ${klaster_gizi}, ${c_klaster_gizi}))</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>klaster_gizi</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>final_klaster_jiwa</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${klaster_jiwa}, if(${klaster_jiwa} != '', ${klaster_jiwa}, ${c_klaster_jiwa}))</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>klaster_jiwa</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>final_klaster_reproduksi</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${klaster_reproduksi}, if(${klaster_reproduksi} != '', ${klaster_reproduksi}, ${c_klaster_reproduksi}))</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>klaster_reproduksi</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>final_klaster_dvi</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${klaster_dvi}, if(${klaster_dvi} != '', ${klaster_dvi}, ${c_klaster_dvi}))</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>klaster_dvi</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>final_klaster_logkes</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${klaster_logkes}, if(${klaster_logkes} != '', ${klaster_logkes}, ${c_klaster_logkes}))</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>klaster_logkes</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>final_geometry</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', ${koordinat}, if(${koordinat} != '', ${koordinat}, ${c_geometry}))</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr">
         <is>
           <t>geometry</t>
         </is>
       </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>final_baseline_sumber</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>if(${mode} = 'baru', 'Relawan Dayawarga', ${c_baseline_sumber})</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>baseline_sumber</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>calc_nama_provinsi</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>instance('provinsi')/root/item[name=${sel_provinsi}]/label</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>nama_provinsi</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>calc_nama_kota_kab</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>instance('kota_kab')/root/item[name=${sel_kota_kab}]/label</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>nama_kota_kab</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>calc_nama_kecamatan</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>instance('kecamatan')/root/item[name=${sel_kecamatan}]/label</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>nama_kecamatan</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>calc_nama_desa</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>instance('desa')/root/item[name=${sel_desa}]/label</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>nama_desa</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>calc_nama_faskes</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>coalesce(${nama_faskes}, ${c_nama_faskes})</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>calc_id_desa</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>${sel_desa}</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>id_desa</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>calculate</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>calc_geometry</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>${final_geometry}</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3835,7 +6733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3873,7 +6771,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Daftarkan faskes Baru</t>
+          <t>Daftarkan Faskes Baru</t>
         </is>
       </c>
     </row>
@@ -3890,704 +6788,857 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Update faskes Existing</t>
+          <t>Update Faskes Existing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>yesno</t>
+          <t>section_list</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>identitas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ya</t>
+          <t>Identitas &amp; Kontak</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>yesno</t>
+          <t>section_list</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>terisolir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tidak</t>
+          <t>Status Terisolir</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cukup</t>
+          <t>section_list</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cukup</t>
+          <t>infrastruktur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cukup</t>
+          <t>Infrastruktur Operasional</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cukup</t>
+          <t>section_list</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kurang</t>
+          <t>sdm</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kurang</t>
+          <t>Sumber Daya Manusia</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cukup</t>
+          <t>section_list</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tidak_ada</t>
+          <t>perbekalan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tidak Ada</t>
+          <t>Sumber Daya Operasional</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jenis_faskes_list</t>
+          <t>section_list</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rumah_sakit</t>
+          <t>klaster</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rumah Sakit</t>
+          <t>Upaya Pemulihan</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jenis_faskes_list</t>
+          <t>section_list</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>puskesmas</t>
+          <t>foto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Puskesmas</t>
+          <t>Foto Dokumentasi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jenis_faskes_list</t>
+          <t>yesno</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>klinik</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Klinik</t>
+          <t>Ya</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jenis_faskes_list</t>
+          <t>yesno</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>posko_kes_darurat</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Posko Kesehatan Darurat</t>
+          <t>Tidak</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>kondisi_faskes_list</t>
+          <t>cukup</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tidak_rusak</t>
+          <t>cukup</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tidak Rusak</t>
+          <t>Cukup</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>kondisi_faskes_list</t>
+          <t>cukup</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>rusak_ringan</t>
+          <t>kurang</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rusak Ringan</t>
+          <t>Kurang</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>kondisi_faskes_list</t>
+          <t>cukup</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>rusak_sedang</t>
+          <t>tidak_ada</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rusak Sedang</t>
+          <t>Tidak Ada</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>kondisi_faskes_list</t>
+          <t>jenis_faskes_list</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>rusak_berat</t>
+          <t>rumah_sakit</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rusak Berat</t>
+          <t>Rumah Sakit</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>kondisi_faskes_list</t>
+          <t>jenis_faskes_list</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>hancur_total</t>
+          <t>puskesmas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hancur Total</t>
+          <t>Puskesmas</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>status_faskes_list</t>
+          <t>jenis_faskes_list</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>operasional</t>
+          <t>klinik</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Beroperasi</t>
+          <t>Klinik</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>status_faskes_list</t>
+          <t>jenis_faskes_list</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>non_aktif</t>
+          <t>posko_kes_darurat</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tidak Beroperasi</t>
+          <t>Posko Kesehatan Darurat</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sumber_air_list</t>
+          <t>kondisi_faskes_list</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pdam</t>
+          <t>tidak_rusak</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PDAM</t>
+          <t>Tidak Rusak</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sumber_air_list</t>
+          <t>kondisi_faskes_list</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sumur</t>
+          <t>rusak_ringan</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sumur</t>
+          <t>Rusak Ringan</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sumber_air_list</t>
+          <t>kondisi_faskes_list</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sungai</t>
+          <t>rusak_sedang</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sungai</t>
+          <t>Rusak Sedang</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sumber_air_list</t>
+          <t>kondisi_faskes_list</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tangki</t>
+          <t>rusak_berat</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tangki/Truk Air</t>
+          <t>Rusak Berat</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sumber_air_list</t>
+          <t>kondisi_faskes_list</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>air_kemasan</t>
+          <t>hancur_total</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Air Kemasan</t>
+          <t>Hancur Total</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sumber_listrik_list</t>
+          <t>status_faskes_list</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pln</t>
+          <t>operasional</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>Beroperasi</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sumber_listrik_list</t>
+          <t>status_faskes_list</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>genset</t>
+          <t>non_aktif</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Genset</t>
+          <t>Tidak Beroperasi</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sumber_listrik_list</t>
+          <t>sumber_air_list</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>pdam</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Panel Surya</t>
+          <t>PDAM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sumber_listrik_list</t>
+          <t>sumber_air_list</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tidak_ada</t>
+          <t>sumur</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tidak Ada</t>
+          <t>Sumur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sinyal_list</t>
+          <t>sumber_air_list</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>telkomsel</t>
+          <t>sungai</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Telkomsel</t>
+          <t>Sungai</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sinyal_list</t>
+          <t>sumber_air_list</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>indosat</t>
+          <t>tangki</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Indosat</t>
+          <t>Tangki/Truk Air</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sinyal_list</t>
+          <t>sumber_air_list</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>xl</t>
+          <t>air_kemasan</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>Air Kemasan</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sinyal_list</t>
+          <t>sumber_listrik_list</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tri</t>
+          <t>pln</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tri</t>
+          <t>PLN</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sinyal_list</t>
+          <t>sumber_listrik_list</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>smartfren</t>
+          <t>genset</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Smartfren</t>
+          <t>Genset</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sinyal_list</t>
+          <t>sumber_listrik_list</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>tidak_ada</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tidak Ada Sinyal</t>
+          <t>Panel Surya</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>akses_list</t>
+          <t>sumber_listrik_list</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>darat_roda2</t>
+          <t>tidak_ada</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Darat roda 2</t>
+          <t>Tidak Ada</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>akses_list</t>
+          <t>sinyal_list</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>darat_roda4</t>
+          <t>telkomsel</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Darat roda 4</t>
+          <t>Telkomsel</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>akses_list</t>
+          <t>sinyal_list</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>air_rakit</t>
+          <t>indosat</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Air rakit</t>
+          <t>Indosat</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>akses_list</t>
+          <t>sinyal_list</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>air_boat</t>
+          <t>xl</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Air boat</t>
+          <t>XL</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>akses_list</t>
+          <t>sinyal_list</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jembatan_gantung</t>
+          <t>tri</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jembatan gantung/tali</t>
+          <t>Tri</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>akses_list</t>
+          <t>sinyal_list</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jembatan_kayu</t>
+          <t>smartfren</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Jembatan kayu</t>
+          <t>Smartfren</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>akses_list</t>
+          <t>sinyal_list</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>udara_helikopter</t>
+          <t>tidak_ada</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Udara Helikopter</t>
+          <t>Tidak Ada Sinyal</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>internet_list</t>
+          <t>akses_list</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>fiber</t>
+          <t>darat_roda2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Broadband Fiber Optik</t>
+          <t>Darat roda 2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>internet_list</t>
+          <t>akses_list</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>satelit</t>
+          <t>darat_roda4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Satelit/Starlink</t>
+          <t>Darat roda 4</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>akses_list</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>air_rakit</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Air rakit</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>akses_list</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>air_boat</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Air boat</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>akses_list</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>jembatan_gantung</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Jembatan gantung/tali</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>akses_list</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>jembatan_kayu</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Jembatan kayu</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>akses_list</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>udara_helikopter</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Udara Helikopter</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>internet_list</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>fiber</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Broadband Fiber Optik</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>internet_list</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>satelit</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Satelit/Starlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>internet_list</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>data_seluler</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data Seluler</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>yn</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ya</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>yn</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>tidak</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Tidak</t>
         </is>
       </c>
     </row>
@@ -4597,6 +7648,67 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>form_title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>form_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>instance_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Form Fasilitas Kesehatan Pengungsi v2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>form_faskes_v1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2025011001</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>concat(${calc_nama_faskes}, ' - ', format-date(today(), '%Y-%m-%d'))</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4667,65 +7779,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>form_title</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>form_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>instance_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Form Fasilitas Kesehatan Pengungsi</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>form_faskes_v1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2025010701</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>concat(${calc_nama_faskes}, ' - ', format-date(today(), '%Y-%m-%d'))</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>